--- a/models/calculation engines/cbix2/outputs/capesize/nominal_mine_div_index_specifications.xlsx
+++ b/models/calculation engines/cbix2/outputs/capesize/nominal_mine_div_index_specifications.xlsx
@@ -531,7 +531,7 @@
         <v>0.3625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="F2" t="n">
         <v>0.0675</v>
@@ -654,7 +654,7 @@
         <v>0.189</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008999999999999959</v>
+        <v>0.008999999999999958</v>
       </c>
       <c r="I4" t="n">
         <v>0.08</v>
@@ -711,7 +711,7 @@
         <v>0.189</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008999999999999959</v>
+        <v>0.008999999999999958</v>
       </c>
       <c r="I5" t="n">
         <v>0.08</v>
@@ -768,7 +768,7 @@
         <v>0.189</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008999999999999959</v>
+        <v>0.008999999999999958</v>
       </c>
       <c r="I6" t="n">
         <v>0.08</v>
